--- a/Project/results_extra_hammouche_glcm.xlsx
+++ b/Project/results_extra_hammouche_glcm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="793">
   <si>
     <t>final_1</t>
   </si>
@@ -1117,6 +1117,1281 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +2412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1147,14 +2422,24 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,365 +2455,365 @@
     <col min="1" max="1" width="14.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.140625" customWidth="true"/>
-    <col min="5" max="5" width="15.85546875" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="7.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>774</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>185</v>
+        <v>775</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>186</v>
+        <v>776</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>187</v>
+        <v>777</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>188</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0021786305014003435</v>
+        <v>0.0012517569986116009</v>
       </c>
       <c r="B2" s="0">
-        <v>0.9896198038413121</v>
+        <v>0.99385752618481049</v>
       </c>
       <c r="C2" s="0">
-        <v>0.78794275071223474</v>
+        <v>0.79496269801443109</v>
       </c>
       <c r="D2" s="0">
-        <v>0.99891068474929967</v>
+        <v>0.99937412150069416</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>189</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0022311851845481586</v>
+        <v>0.0012039800139317688</v>
       </c>
       <c r="B3" s="0">
-        <v>0.98650445735398462</v>
+        <v>0.99398634985066359</v>
       </c>
       <c r="C3" s="0">
-        <v>0.83244622944556768</v>
+        <v>0.79858961175818566</v>
       </c>
       <c r="D3" s="0">
-        <v>0.99888440740772599</v>
+        <v>0.99939800999303396</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>190</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0025818682520981264</v>
+        <v>0.0013052672214530128</v>
       </c>
       <c r="B4" s="0">
-        <v>0.98854737321217423</v>
+        <v>0.99405501307104027</v>
       </c>
       <c r="C4" s="0">
-        <v>0.77198583955688438</v>
+        <v>0.77913880970551308</v>
       </c>
       <c r="D4" s="0">
-        <v>0.99870906587395092</v>
+        <v>0.99934736638927335</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>190</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0051847583774553788</v>
+        <v>0.0036864721378958441</v>
       </c>
       <c r="B5" s="0">
-        <v>0.98960538826973954</v>
+        <v>0.9925860640873696</v>
       </c>
       <c r="C5" s="0">
-        <v>0.49604923795102202</v>
+        <v>0.49909161693930792</v>
       </c>
       <c r="D5" s="0">
-        <v>0.99740762081127232</v>
+        <v>0.99815676393105213</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>191</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.003214435529259103</v>
+        <v>0.0019856114832938216</v>
       </c>
       <c r="B6" s="0">
-        <v>0.99357002138898376</v>
+        <v>0.99602859511522746</v>
       </c>
       <c r="C6" s="0">
-        <v>0.49688202118643354</v>
+        <v>0.49804123467488609</v>
       </c>
       <c r="D6" s="0">
-        <v>0.99839278223537042</v>
+        <v>0.99900719425835305</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0031198370995930355</v>
+        <v>0.0026812443802321771</v>
       </c>
       <c r="B7" s="0">
-        <v>0.99374838575493196</v>
+        <v>0.99463266180578447</v>
       </c>
       <c r="C7" s="0">
-        <v>0.49784485330895134</v>
+        <v>0.49777769876142752</v>
       </c>
       <c r="D7" s="0">
-        <v>0.99844008145020346</v>
+        <v>0.9986593778098839</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>192</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0035288080884523982</v>
+        <v>0.0019856114832938216</v>
       </c>
       <c r="B8" s="0">
-        <v>0.99289088289635763</v>
+        <v>0.99461945722849854</v>
       </c>
       <c r="C8" s="0">
-        <v>0.50010581899350126</v>
+        <v>0.62898279560793902</v>
       </c>
       <c r="D8" s="0">
-        <v>0.99823559595577382</v>
+        <v>0.99900719425835305</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>192</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0037925370438850717</v>
+        <v>0.002803553461012547</v>
       </c>
       <c r="B9" s="0">
-        <v>0.99239972028556156</v>
+        <v>0.99437125203427834</v>
       </c>
       <c r="C9" s="0">
-        <v>0.4972221796520998</v>
+        <v>0.49912667389650167</v>
       </c>
       <c r="D9" s="0">
-        <v>0.99810373147805753</v>
+        <v>0.99859822326949388</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>192</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0027165993488952526</v>
+        <v>0.0028723523189515053</v>
       </c>
       <c r="B10" s="0">
-        <v>0.99279807124818298</v>
+        <v>0.99423576988232065</v>
       </c>
       <c r="C10" s="0">
-        <v>0.62008636178712873</v>
+        <v>0.49882957438024189</v>
       </c>
       <c r="D10" s="0">
-        <v>0.99864170032555244</v>
+        <v>0.99856382384052422</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>192</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0025990679665828659</v>
+        <v>0.0018117032590592328</v>
       </c>
       <c r="B11" s="0">
-        <v>0.9914208452660892</v>
+        <v>0.99391484175835443</v>
       </c>
       <c r="C11" s="0">
-        <v>0.69445616723091042</v>
+        <v>0.70046665763286609</v>
       </c>
       <c r="D11" s="0">
-        <v>0.9987004660167087</v>
+        <v>0.9990941483704705</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>193</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0025570242200646134</v>
+        <v>0.0017811259888641405</v>
       </c>
       <c r="B12" s="0">
-        <v>0.99270427298617803</v>
+        <v>0.99489002447092278</v>
       </c>
       <c r="C12" s="0">
-        <v>0.64696707213978832</v>
+        <v>0.64966343224968337</v>
       </c>
       <c r="D12" s="0">
-        <v>0.99872148788996762</v>
+        <v>0.99910943700556787</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>194</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0032096578307911198</v>
+        <v>0.0021728972632387637</v>
       </c>
       <c r="B13" s="0">
-        <v>0.99133831984190346</v>
+        <v>0.99412999519597323</v>
       </c>
       <c r="C13" s="0">
-        <v>0.62624230294165883</v>
+        <v>0.62766223564446177</v>
       </c>
       <c r="D13" s="0">
-        <v>0.99839517108460452</v>
+        <v>0.99891355136838056</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>195</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0025866459505661096</v>
+        <v>0.0018375028307863423</v>
       </c>
       <c r="B14" s="0">
-        <v>0.99312954556652455</v>
+        <v>0.9950935882667139</v>
       </c>
       <c r="C14" s="0">
-        <v>0.62093170975561784</v>
+        <v>0.62365534926105393</v>
       </c>
       <c r="D14" s="0">
-        <v>0.99870667702471683</v>
+        <v>0.99908124858460678</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>195</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0024863142827384623</v>
+        <v>0.0020496326427647967</v>
       </c>
       <c r="B15" s="0">
-        <v>0.99337485220897348</v>
+        <v>0.99477865153057465</v>
       </c>
       <c r="C15" s="0">
-        <v>0.6222355174262979</v>
+        <v>0.60540604285691035</v>
       </c>
       <c r="D15" s="0">
-        <v>0.99875684285863064</v>
+        <v>0.9989751836786176</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>196</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.004525435988873696</v>
+        <v>0.0026229564589227818</v>
       </c>
       <c r="B16" s="0">
-        <v>0.99056991355941848</v>
+        <v>0.99446198644467487</v>
       </c>
       <c r="C16" s="0">
-        <v>0.51560167066457474</v>
+        <v>0.5237562530289287</v>
       </c>
       <c r="D16" s="0">
-        <v>0.997737282005563</v>
+        <v>0.99868852177053857</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>197</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0055191972702142034</v>
+        <v>0.0019722339275834687</v>
       </c>
       <c r="B17" s="0">
-        <v>0.9791855543276291</v>
+        <v>0.99182934855177785</v>
       </c>
       <c r="C17" s="0">
-        <v>0.72934939750090655</v>
+        <v>0.75665140108560569</v>
       </c>
       <c r="D17" s="0">
-        <v>0.99724040136489278</v>
+        <v>0.99901388303620819</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>198</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0019005684505637207</v>
+        <v>0.0012823342688066933</v>
       </c>
       <c r="B18" s="0">
-        <v>0.99074523767648925</v>
+        <v>0.99362080644919826</v>
       </c>
       <c r="C18" s="0">
-        <v>0.7927419135017485</v>
+        <v>0.79770106876342994</v>
       </c>
       <c r="D18" s="0">
-        <v>0.99904971577471802</v>
+        <v>0.99935883286559657</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>199</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0024394928377522267</v>
+        <v>0.0023898047736852011</v>
       </c>
       <c r="B19" s="0">
-        <v>0.99458577639148715</v>
+        <v>0.9946783864069022</v>
       </c>
       <c r="C19" s="0">
-        <v>0.54699533043154625</v>
+        <v>0.5485406904126684</v>
       </c>
       <c r="D19" s="0">
-        <v>0.99878025358112388</v>
+        <v>0.99880509761315728</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>200</v>
+        <v>790</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0048684747388748903</v>
+        <v>0.0019282791016780232</v>
       </c>
       <c r="B20" s="0">
-        <v>0.9883282068313306</v>
+        <v>0.99524498189779276</v>
       </c>
       <c r="C20" s="0">
-        <v>0.57804067870974551</v>
+        <v>0.59255035802739175</v>
       </c>
       <c r="D20" s="0">
-        <v>0.99756576263056251</v>
+        <v>0.99903586044916104</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>201</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0025780460933237399</v>
+        <v>0.0021518753899796373</v>
       </c>
       <c r="B21" s="0">
-        <v>0.99425598900778334</v>
+        <v>0.99520206801690581</v>
       </c>
       <c r="C21" s="0">
-        <v>0.54860527854300234</v>
+        <v>0.54935215167564866</v>
       </c>
       <c r="D21" s="0">
-        <v>0.99871097695333799</v>
+        <v>0.99892406230501019</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>202</v>
+        <v>792</v>
       </c>
     </row>
     <row r="22">
@@ -1545,7 +2830,7 @@
         <v>0.9986603333495776</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>203</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23">
@@ -1562,7 +2847,7 @@
         <v>0.99866606658773904</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>204</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24">
@@ -1579,7 +2864,7 @@
         <v>0.99876162055709872</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>205</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25">
@@ -1596,7 +2881,7 @@
         <v>0.99882420840702935</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>206</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26">
@@ -1613,7 +2898,7 @@
         <v>0.99845775893453514</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>207</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27">
@@ -1630,7 +2915,7 @@
         <v>0.99724374575382047</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>208</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28">
@@ -1647,7 +2932,7 @@
         <v>0.99827620639275161</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>208</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29">
@@ -1664,7 +2949,7 @@
         <v>0.99771721567199778</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>209</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30">
@@ -1681,7 +2966,7 @@
         <v>0.99849359167304486</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>210</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31">
@@ -1698,7 +2983,7 @@
         <v>0.99863692262708437</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>211</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32">
@@ -1715,7 +3000,7 @@
         <v>0.9974639976531946</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>212</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33">
@@ -1732,7 +3017,7 @@
         <v>0.99769476048919803</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>213</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34">
@@ -1749,7 +3034,7 @@
         <v>0.99902248289345064</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35">
@@ -1766,7 +3051,7 @@
         <v>0.99885335236768391</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36">
@@ -1783,7 +3068,7 @@
         <v>0.99876448717617938</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37">
@@ -1800,7 +3085,7 @@
         <v>0.9981615416295202</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38">
@@ -1817,7 +3102,7 @@
         <v>0.99778075906162167</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39">
@@ -1834,7 +3119,7 @@
         <v>0.99918110248258774</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40">
@@ -1851,7 +3136,7 @@
         <v>0.99802872161211009</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41">
@@ -1868,7 +3153,7 @@
         <v>0.99917919140320055</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42">
@@ -1885,7 +3170,7 @@
         <v>0.998817997399021</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43">
@@ -1902,7 +3187,7 @@
         <v>0.99822412947945061</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44">
@@ -1919,7 +3204,7 @@
         <v>0.99723753474581223</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45">
@@ -1936,7 +3221,7 @@
         <v>0.99887055208216879</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46">
@@ -1953,7 +3238,7 @@
         <v>0.99792170116642742</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47">
@@ -1970,7 +3255,7 @@
         <v>0.99880223099407672</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48">
@@ -1987,7 +3272,7 @@
         <v>0.99781898064936569</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49">
@@ -2004,7 +3289,7 @@
         <v>0.99849598052227884</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50">
@@ -2021,7 +3306,7 @@
         <v>0.99861207859505075</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51">
@@ -2038,7 +3323,7 @@
         <v>0.99641290399023807</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52">
@@ -2055,7 +3340,7 @@
         <v>0.99774635963265235</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53">
@@ -2072,7 +3357,7 @@
         <v>0.99833353877436748</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54">
@@ -2089,7 +3374,7 @@
         <v>0.9971606138004776</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="55">
@@ -2106,7 +3391,7 @@
         <v>0.99771148243383601</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56">
@@ -2123,7 +3408,7 @@
         <v>0.99885191905814352</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57">
@@ -2140,7 +3425,7 @@
         <v>0.99807554305709623</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58">
@@ -2157,7 +3442,7 @@
         <v>0.99822174063021651</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59">
@@ -2174,7 +3459,7 @@
         <v>0.99876926487464757</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>215</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60">
@@ -2191,7 +3476,7 @@
         <v>0.9986483891034077</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>216</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61">
@@ -2208,7 +3493,7 @@
         <v>0.99896085058321349</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>217</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62">
@@ -2225,7 +3510,7 @@
         <v>0.99892310676531659</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>217</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63">
@@ -2242,7 +3527,7 @@
         <v>0.99902248289345064</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>217</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64">
@@ -2259,7 +3544,7 @@
         <v>0.99868804400069189</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>218</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65">
@@ -2276,7 +3561,7 @@
         <v>0.99843960368035667</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>219</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66">
@@ -2293,7 +3578,7 @@
         <v>0.99848308073641534</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>219</v>
+        <v>625</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +3595,7 @@
         <v>0.99880700869254446</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>219</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68">
@@ -2327,7 +3612,7 @@
         <v>0.99842718166433986</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>219</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69">
@@ -2344,7 +3629,7 @@
         <v>0.99873820983460559</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>219</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70">
@@ -2361,7 +3646,7 @@
         <v>0.99687777405117295</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>220</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71">
@@ -2378,7 +3663,7 @@
         <v>0.99870906587395092</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>221</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72">
@@ -2395,7 +3680,7 @@
         <v>0.99883997481197373</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>221</v>
+        <v>627</v>
       </c>
     </row>
     <row r="73">
@@ -2412,7 +3697,7 @@
         <v>0.9989899945438685</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>222</v>
+        <v>628</v>
       </c>
     </row>
     <row r="74">
@@ -2429,7 +3714,7 @@
         <v>0.99885287459783711</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>223</v>
+        <v>629</v>
       </c>
     </row>
     <row r="75">
@@ -2446,7 +3731,7 @@
         <v>0.99852034678446555</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>223</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76">
@@ -2463,7 +3748,7 @@
         <v>0.99871288803272529</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>224</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77">
@@ -2480,7 +3765,7 @@
         <v>0.99865507788126284</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>225</v>
+        <v>631</v>
       </c>
     </row>
     <row r="78">
@@ -2497,7 +3782,7 @@
         <v>0.99854901297527365</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>225</v>
+        <v>631</v>
       </c>
     </row>
     <row r="79">
@@ -2514,7 +3799,7 @@
         <v>0.99846540325208366</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>225</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80">
@@ -2531,7 +3816,7 @@
         <v>0.99880987531162535</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>225</v>
+        <v>631</v>
       </c>
     </row>
     <row r="81">
@@ -2548,7 +3833,7 @@
         <v>0.99885860783599878</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>226</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82">
@@ -2565,7 +3850,7 @@
         <v>0.99865746673049682</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>226</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83">
@@ -2582,7 +3867,7 @@
         <v>0.99836650489379664</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>227</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84">
@@ -2599,7 +3884,7 @@
         <v>0.99866893320681993</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>228</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85">
@@ -2616,7 +3901,7 @@
         <v>0.99823464041608012</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>229</v>
+        <v>635</v>
       </c>
     </row>
     <row r="86">
@@ -2633,7 +3918,7 @@
         <v>0.99839373777506402</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>229</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87">
@@ -2650,7 +3935,7 @@
         <v>0.99858962341225133</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>229</v>
+        <v>635</v>
       </c>
     </row>
     <row r="88">
@@ -2667,7 +3952,7 @@
         <v>0.99834452748084379</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>229</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89">
@@ -2684,7 +3969,7 @@
         <v>0.99836029388578829</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>229</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90">
@@ -2701,7 +3986,7 @@
         <v>0.99796756707172007</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>229</v>
+        <v>635</v>
       </c>
     </row>
     <row r="91">
@@ -2718,7 +4003,7 @@
         <v>0.99830582812325319</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>230</v>
+        <v>636</v>
       </c>
     </row>
     <row r="92">
@@ -2735,7 +4020,7 @@
         <v>0.99820167429665108</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>231</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93">
@@ -2752,7 +4037,7 @@
         <v>0.99865603342095643</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>232</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94">
@@ -2769,7 +4054,7 @@
         <v>0.99836889374303039</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>233</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95">
@@ -2786,7 +4071,7 @@
         <v>0.99769906041781931</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>233</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96">
@@ -2803,7 +4088,7 @@
         <v>0.99847065872039853</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>234</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97">
@@ -2820,7 +4105,7 @@
         <v>0.99853897980849071</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>235</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98">
@@ -2837,7 +4122,7 @@
         <v>0.99854614635619277</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>236</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99">
@@ -2854,7 +4139,7 @@
         <v>0.99850888030814255</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>237</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100">
@@ -2871,7 +4156,7 @@
         <v>0.99789446828515982</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>238</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101">
@@ -2888,7 +4173,7 @@
         <v>0.99853897980849082</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>239</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102">
@@ -2905,7 +4190,7 @@
         <v>0.99884857466921617</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>239</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103">
@@ -2922,7 +4207,7 @@
         <v>0.99818925228063438</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>240</v>
+        <v>646</v>
       </c>
     </row>
     <row r="104">
@@ -2939,7 +4224,7 @@
         <v>0.99863787816677796</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>241</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105">
@@ -2956,7 +4241,7 @@
         <v>0.9983837046082813</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>242</v>
+        <v>648</v>
       </c>
     </row>
     <row r="106">
@@ -2973,7 +4258,7 @@
         <v>0.99833210546482698</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>243</v>
+        <v>649</v>
       </c>
     </row>
     <row r="107">
@@ -2990,7 +4275,7 @@
         <v>0.99820501868557876</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>244</v>
+        <v>650</v>
       </c>
     </row>
     <row r="108">
@@ -3007,7 +4292,7 @@
         <v>0.99797330030988141</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>245</v>
+        <v>651</v>
       </c>
     </row>
     <row r="109">
@@ -3024,7 +4309,7 @@
         <v>0.99781372518105094</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>246</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110">
@@ -3041,7 +4326,7 @@
         <v>0.99810994248606599</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>246</v>
+        <v>652</v>
       </c>
     </row>
     <row r="111">
@@ -3058,7 +4343,7 @@
         <v>0.99869855493732151</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>247</v>
+        <v>653</v>
       </c>
     </row>
     <row r="112">
@@ -3075,7 +4360,7 @@
         <v>0.99822890717791857</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>247</v>
+        <v>653</v>
       </c>
     </row>
     <row r="113">
@@ -3092,7 +4377,7 @@
         <v>0.99868039968314304</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>248</v>
+        <v>654</v>
       </c>
     </row>
     <row r="114">
@@ -3109,7 +4394,7 @@
         <v>0.99896610605152836</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>248</v>
+        <v>654</v>
       </c>
     </row>
     <row r="115">
@@ -3126,7 +4411,7 @@
         <v>0.99872148788996773</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>248</v>
+        <v>654</v>
       </c>
     </row>
     <row r="116">
@@ -3143,7 +4428,7 @@
         <v>0.99670529913647865</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>249</v>
+        <v>655</v>
       </c>
     </row>
     <row r="117">
@@ -3160,7 +4445,7 @@
         <v>0.99767421638578591</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>250</v>
+        <v>656</v>
       </c>
     </row>
     <row r="118">
@@ -3177,7 +4462,7 @@
         <v>0.99898473907555352</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>251</v>
+        <v>657</v>
       </c>
     </row>
     <row r="119">
@@ -3194,7 +4479,7 @@
         <v>0.99866415550835186</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>252</v>
+        <v>658</v>
       </c>
     </row>
     <row r="120">
@@ -3211,7 +4496,7 @@
         <v>0.99870333263578948</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>252</v>
+        <v>658</v>
       </c>
     </row>
     <row r="121">
@@ -3228,7 +4513,7 @@
         <v>0.99850744699860217</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
     </row>
     <row r="122">
@@ -3245,7 +4530,7 @@
         <v>0.99724374575382035</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>254</v>
+        <v>660</v>
       </c>
     </row>
     <row r="123">
@@ -3262,7 +4547,7 @@
         <v>0.99852130232415914</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>255</v>
+        <v>661</v>
       </c>
     </row>
     <row r="124">
@@ -3279,7 +4564,7 @@
         <v>0.99872769889797608</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>255</v>
+        <v>661</v>
       </c>
     </row>
     <row r="125">
@@ -3296,7 +4581,7 @@
         <v>0.99883710819289295</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>256</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126">
@@ -3313,7 +4598,7 @@
         <v>0.9970287493227612</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>256</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127">
@@ -3330,7 +4615,7 @@
         <v>0.99777168143453276</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>257</v>
+        <v>663</v>
       </c>
     </row>
     <row r="128">
@@ -3347,7 +4632,7 @@
         <v>0.99850744699860217</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>257</v>
+        <v>663</v>
       </c>
     </row>
     <row r="129">
@@ -3364,7 +4649,7 @@
         <v>0.99862927830953563</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>258</v>
+        <v>664</v>
       </c>
     </row>
     <row r="130">
@@ -3381,7 +4666,7 @@
         <v>0.99820406314588528</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>258</v>
+        <v>664</v>
       </c>
     </row>
     <row r="131">
@@ -3398,7 +4683,7 @@
         <v>0.99827668416259829</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>259</v>
+        <v>665</v>
       </c>
     </row>
     <row r="132">
@@ -3415,7 +4700,7 @@
         <v>0.99804401024720768</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>260</v>
+        <v>666</v>
       </c>
     </row>
     <row r="133">
@@ -3432,7 +4717,7 @@
         <v>0.99836602712394962</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>261</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134">
@@ -3449,7 +4734,7 @@
         <v>0.99807602082694313</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>261</v>
+        <v>667</v>
       </c>
     </row>
     <row r="135">
@@ -3466,7 +4751,7 @@
         <v>0.99885287459783711</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>262</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136">
@@ -3483,7 +4768,7 @@
         <v>0.99819355220925554</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>263</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137">
@@ -3500,7 +4785,7 @@
         <v>0.99766513875869667</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>264</v>
+        <v>670</v>
       </c>
     </row>
     <row r="138">
@@ -3517,7 +4802,7 @@
         <v>0.99769714933843212</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>264</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139">
@@ -3534,7 +4819,7 @@
         <v>0.99817300810584308</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>264</v>
+        <v>670</v>
       </c>
     </row>
     <row r="140">
@@ -3551,7 +4836,7 @@
         <v>0.99841571518801664</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>264</v>
+        <v>670</v>
       </c>
     </row>
     <row r="141">
@@ -3568,7 +4853,7 @@
         <v>0.99856191276113693</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>264</v>
+        <v>670</v>
       </c>
     </row>
     <row r="142">
@@ -3585,7 +4870,7 @@
         <v>0.99774444855326516</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>264</v>
+        <v>670</v>
       </c>
     </row>
     <row r="143">
@@ -3602,7 +4887,7 @@
         <v>0.99835360510793303</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>265</v>
+        <v>671</v>
       </c>
     </row>
     <row r="144">
@@ -3619,7 +4904,7 @@
         <v>0.99842335950556549</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>266</v>
+        <v>672</v>
       </c>
     </row>
     <row r="145">
@@ -3636,7 +4921,7 @@
         <v>0.9985017137604405</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>267</v>
+        <v>673</v>
       </c>
     </row>
     <row r="146">
@@ -3653,7 +4938,7 @@
         <v>0.99656340149197964</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>268</v>
+        <v>674</v>
       </c>
     </row>
     <row r="147">
@@ -3670,7 +4955,7 @@
         <v>0.99808318737464496</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>269</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148">
@@ -3687,7 +4972,7 @@
         <v>0.99180576935756215</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>270</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149">
@@ -3704,7 +4989,7 @@
         <v>0.99713242537951652</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>271</v>
+        <v>677</v>
       </c>
     </row>
     <row r="150">
@@ -3721,7 +5006,7 @@
         <v>0.9941621302419712</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>271</v>
+        <v>677</v>
       </c>
     </row>
     <row r="151">
@@ -3738,7 +5023,7 @@
         <v>0.99690118477366596</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>272</v>
+        <v>678</v>
       </c>
     </row>
     <row r="152">
@@ -3755,7 +5040,7 @@
         <v>0.99125346741466314</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>273</v>
+        <v>679</v>
       </c>
     </row>
     <row r="153">
@@ -3772,7 +5057,7 @@
         <v>0.99526577858807541</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>274</v>
+        <v>680</v>
       </c>
     </row>
     <row r="154">
@@ -3789,7 +5074,7 @@
         <v>0.99685866325730099</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>275</v>
+        <v>681</v>
       </c>
     </row>
     <row r="155">
@@ -3806,7 +5091,7 @@
         <v>0.99900862756789355</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>276</v>
+        <v>682</v>
       </c>
     </row>
     <row r="156">
@@ -3823,7 +5108,7 @@
         <v>0.99553810740075044</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>277</v>
+        <v>683</v>
       </c>
     </row>
     <row r="157">
@@ -3840,7 +5125,7 @@
         <v>0.99634028297352495</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>277</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158">
@@ -3857,7 +5142,7 @@
         <v>0.9988547856772243</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>278</v>
+        <v>684</v>
       </c>
     </row>
     <row r="159">
@@ -3874,7 +5159,7 @@
         <v>0.9987253100487421</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>279</v>
+        <v>685</v>
       </c>
     </row>
     <row r="160">
@@ -3891,7 +5176,7 @@
         <v>0.998329716615593</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>279</v>
+        <v>685</v>
       </c>
     </row>
     <row r="161">
@@ -3908,7 +5193,7 @@
         <v>0.99840424871169375</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>280</v>
+        <v>686</v>
       </c>
     </row>
     <row r="162">
@@ -3925,7 +5210,7 @@
         <v>0.99700486083042117</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>281</v>
+        <v>687</v>
       </c>
     </row>
     <row r="163">
@@ -3942,7 +5227,7 @@
         <v>0.99864600025417372</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>282</v>
+        <v>688</v>
       </c>
     </row>
     <row r="164">
@@ -3959,7 +5244,7 @@
         <v>0.9983301943854398</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>283</v>
+        <v>689</v>
       </c>
     </row>
     <row r="165">
@@ -3976,7 +5261,7 @@
         <v>0.99883901927228014</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>283</v>
+        <v>689</v>
       </c>
     </row>
     <row r="166">
@@ -3993,7 +5278,7 @@
         <v>0.99810564255744483</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>284</v>
+        <v>690</v>
       </c>
     </row>
     <row r="167">
@@ -4010,7 +5295,7 @@
         <v>0.99858914564240464</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>285</v>
+        <v>691</v>
       </c>
     </row>
     <row r="168">
@@ -4027,7 +5312,7 @@
         <v>0.99826617322596878</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>286</v>
+        <v>692</v>
       </c>
     </row>
     <row r="169">
@@ -4044,7 +5329,7 @@
         <v>0.99856334607067732</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>287</v>
+        <v>693</v>
       </c>
     </row>
     <row r="170">
@@ -4061,7 +5346,7 @@
         <v>0.99872005458042734</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>288</v>
+        <v>694</v>
       </c>
     </row>
     <row r="171">
@@ -4078,7 +5363,7 @@
         <v>0.99821505185236159</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>289</v>
+        <v>695</v>
       </c>
     </row>
     <row r="172">
@@ -4095,7 +5380,7 @@
         <v>0.99891402913822747</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>289</v>
+        <v>695</v>
       </c>
     </row>
     <row r="173">
@@ -4112,7 +5397,7 @@
         <v>0.99842909274372704</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>290</v>
+        <v>696</v>
       </c>
     </row>
     <row r="174">
@@ -4129,7 +5414,7 @@
         <v>0.99846205886315609</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>290</v>
+        <v>696</v>
       </c>
     </row>
     <row r="175">
@@ -4146,7 +5431,7 @@
         <v>0.99844629245821181</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>291</v>
+        <v>697</v>
       </c>
     </row>
     <row r="176">
@@ -4163,7 +5448,7 @@
         <v>0.99838561568766848</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>291</v>
+        <v>697</v>
       </c>
     </row>
     <row r="177">
@@ -4180,7 +5465,7 @@
         <v>0.99816536378829457</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>291</v>
+        <v>697</v>
       </c>
     </row>
     <row r="178">
@@ -4197,7 +5482,7 @@
         <v>0.99810229816851703</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>292</v>
+        <v>698</v>
       </c>
     </row>
     <row r="179">
@@ -4214,7 +5499,7 @@
         <v>0.99863357823815679</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>293</v>
+        <v>699</v>
       </c>
     </row>
     <row r="180">
@@ -4231,7 +5516,7 @@
         <v>0.99907169318767086</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>293</v>
+        <v>699</v>
       </c>
     </row>
     <row r="181">
@@ -4248,7 +5533,7 @@
         <v>0.999040638147629</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>294</v>
+        <v>700</v>
       </c>
     </row>
     <row r="182">
@@ -4265,7 +5550,7 @@
         <v>0.99880079768453633</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>294</v>
+        <v>700</v>
       </c>
     </row>
     <row r="183">
@@ -4282,7 +5567,7 @@
         <v>0.998381793528894</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>295</v>
+        <v>701</v>
       </c>
     </row>
     <row r="184">
@@ -4299,7 +5584,7 @@
         <v>0.99837988244950682</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>296</v>
+        <v>702</v>
       </c>
     </row>
     <row r="185">
@@ -4316,7 +5601,7 @@
         <v>0.99864695579386731</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>297</v>
+        <v>703</v>
       </c>
     </row>
     <row r="186">
@@ -4333,7 +5618,7 @@
         <v>0.99871766573119325</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>297</v>
+        <v>703</v>
       </c>
     </row>
     <row r="187">
@@ -4350,7 +5635,7 @@
         <v>0.9988165640894805</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>298</v>
+        <v>704</v>
       </c>
     </row>
     <row r="188">
@@ -4367,7 +5652,7 @@
         <v>0.99783331374476947</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>299</v>
+        <v>705</v>
       </c>
     </row>
     <row r="189">
@@ -4384,7 +5669,7 @@
         <v>0.99883901927228014</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>300</v>
+        <v>706</v>
       </c>
     </row>
     <row r="190">
@@ -4401,7 +5686,7 @@
         <v>0.99597383350103053</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>301</v>
+        <v>707</v>
       </c>
     </row>
     <row r="191">
@@ -4418,7 +5703,7 @@
         <v>0.99878455350974504</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>302</v>
+        <v>708</v>
       </c>
     </row>
     <row r="192">
@@ -4435,7 +5720,7 @@
         <v>0.99909653721970426</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>303</v>
+        <v>709</v>
       </c>
     </row>
     <row r="193">
@@ -4452,7 +5737,7 @@
         <v>0.99877117595403464</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>304</v>
+        <v>710</v>
       </c>
     </row>
     <row r="194">
@@ -4469,7 +5754,7 @@
         <v>0.99830773920264027</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>304</v>
+        <v>710</v>
       </c>
     </row>
     <row r="195">
@@ -4486,7 +5771,7 @@
         <v>0.99772581552924</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>305</v>
+        <v>711</v>
       </c>
     </row>
     <row r="196">
@@ -4503,7 +5788,7 @@
         <v>0.99864600025417349</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>306</v>
+        <v>712</v>
       </c>
     </row>
     <row r="197">
@@ -4520,7 +5805,7 @@
         <v>0.99853706872910353</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>307</v>
+        <v>713</v>
       </c>
     </row>
     <row r="198">
@@ -4537,7 +5822,7 @@
         <v>0.99879076451775362</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>308</v>
+        <v>714</v>
       </c>
     </row>
     <row r="199">
@@ -4554,7 +5839,7 @@
         <v>0.99839947101322568</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>309</v>
+        <v>715</v>
       </c>
     </row>
     <row r="200">
@@ -4571,7 +5856,7 @@
         <v>0.99848881397457689</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>309</v>
+        <v>715</v>
       </c>
     </row>
     <row r="201">
@@ -4588,7 +5873,7 @@
         <v>0.99856239053098372</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>310</v>
+        <v>716</v>
       </c>
     </row>
     <row r="202">
@@ -4605,7 +5890,7 @@
         <v>0.99874012091399278</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>310</v>
+        <v>716</v>
       </c>
     </row>
     <row r="203">
@@ -4622,7 +5907,7 @@
         <v>0.99848212519672175</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>311</v>
+        <v>717</v>
       </c>
     </row>
     <row r="204">
@@ -4639,7 +5924,7 @@
         <v>0.99850792476844896</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>311</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205">
@@ -4656,7 +5941,7 @@
         <v>0.99838418237812809</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>312</v>
+        <v>718</v>
       </c>
     </row>
     <row r="206">
@@ -4673,7 +5958,7 @@
         <v>0.99869377723885355</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>313</v>
+        <v>719</v>
       </c>
     </row>
     <row r="207">
@@ -4690,7 +5975,7 @@
         <v>0.99851939124477185</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>314</v>
+        <v>720</v>
       </c>
     </row>
     <row r="208">
@@ -4707,7 +5992,7 @@
         <v>0.99901913850452306</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>315</v>
+        <v>721</v>
       </c>
     </row>
     <row r="209">
@@ -4724,7 +6009,7 @@
         <v>0.9986460002541736</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>316</v>
+        <v>722</v>
       </c>
     </row>
     <row r="210">
@@ -4741,7 +6026,7 @@
         <v>0.99815628616120533</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>317</v>
+        <v>723</v>
       </c>
     </row>
     <row r="211">
@@ -4758,7 +6043,7 @@
         <v>0.99764125026635675</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>318</v>
+        <v>724</v>
       </c>
     </row>
     <row r="212">
@@ -4775,7 +6060,7 @@
         <v>0.99789446828515982</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>319</v>
+        <v>725</v>
       </c>
     </row>
     <row r="213">
@@ -4792,7 +6077,7 @@
         <v>0.99864743356371399</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>320</v>
+        <v>726</v>
       </c>
     </row>
     <row r="214">
@@ -4809,7 +6094,7 @@
         <v>0.99880557538300407</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>321</v>
+        <v>727</v>
       </c>
     </row>
     <row r="215">
@@ -4826,7 +6111,7 @@
         <v>0.99888679625695986</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>322</v>
+        <v>728</v>
       </c>
     </row>
     <row r="216">
@@ -4843,7 +6128,7 @@
         <v>0.99612385323292518</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>323</v>
+        <v>729</v>
       </c>
     </row>
     <row r="217">
@@ -4860,7 +6145,7 @@
         <v>0.9984357815215823</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>324</v>
+        <v>730</v>
       </c>
     </row>
     <row r="218">
@@ -4877,7 +6162,7 @@
         <v>0.99879649775591517</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>325</v>
+        <v>731</v>
       </c>
     </row>
     <row r="219">
@@ -4894,7 +6179,7 @@
         <v>0.99903394936977385</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>326</v>
+        <v>732</v>
       </c>
     </row>
     <row r="220">
@@ -4911,7 +6196,7 @@
         <v>0.99757197363857097</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>327</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221">
@@ -4928,7 +6213,7 @@
         <v>0.99828671732938123</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>328</v>
+        <v>734</v>
       </c>
     </row>
     <row r="222">
@@ -4945,7 +6230,7 @@
         <v>0.99896658382137526</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>328</v>
+        <v>734</v>
       </c>
     </row>
     <row r="223">
@@ -4962,7 +6247,7 @@
         <v>0.99872626558843569</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>329</v>
+        <v>735</v>
       </c>
     </row>
     <row r="224">
@@ -4979,7 +6264,7 @@
         <v>0.99871432134226568</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>329</v>
+        <v>735</v>
       </c>
     </row>
     <row r="225">
@@ -4996,7 +6281,7 @@
         <v>0.99906834879874329</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>330</v>
+        <v>736</v>
       </c>
     </row>
     <row r="226">
@@ -5013,7 +6298,7 @@
         <v>0.99833927201252903</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>330</v>
+        <v>736</v>
       </c>
     </row>
     <row r="227">
@@ -5030,7 +6315,7 @@
         <v>0.99884188589136103</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>330</v>
+        <v>736</v>
       </c>
     </row>
     <row r="228">
@@ -5047,7 +6332,7 @@
         <v>0.9983058281232533</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>331</v>
+        <v>737</v>
       </c>
     </row>
     <row r="229">
@@ -5064,7 +6349,7 @@
         <v>0.99838896007659605</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>331</v>
+        <v>737</v>
       </c>
     </row>
     <row r="230">
@@ -5081,7 +6366,7 @@
         <v>0.99814911961350328</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>332</v>
+        <v>738</v>
       </c>
     </row>
     <row r="231">
@@ -5098,7 +6383,7 @@
         <v>0.99863644485723768</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>332</v>
+        <v>738</v>
       </c>
     </row>
     <row r="232">
@@ -5115,7 +6400,7 @@
         <v>0.99847161426009223</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>332</v>
+        <v>738</v>
       </c>
     </row>
     <row r="233">
@@ -5132,7 +6417,7 @@
         <v>0.99849550275243215</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>332</v>
+        <v>738</v>
       </c>
     </row>
     <row r="234">
@@ -5149,7 +6434,7 @@
         <v>0.99819928544741721</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>333</v>
+        <v>739</v>
       </c>
     </row>
     <row r="235">
@@ -5166,7 +6451,7 @@
         <v>0.99870428817548307</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>333</v>
+        <v>739</v>
       </c>
     </row>
     <row r="236">
@@ -5183,7 +6468,7 @@
         <v>0.9973717880727625</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>333</v>
+        <v>739</v>
       </c>
     </row>
     <row r="237">
@@ -5200,7 +6485,7 @@
         <v>0.99902152735375704</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>334</v>
+        <v>740</v>
       </c>
     </row>
     <row r="238">
@@ -5217,7 +6502,7 @@
         <v>0.99898999454386839</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>335</v>
+        <v>741</v>
       </c>
     </row>
     <row r="239">
@@ -5234,7 +6519,7 @@
         <v>0.9988165640894805</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>336</v>
+        <v>742</v>
       </c>
     </row>
     <row r="240">
@@ -5251,7 +6536,7 @@
         <v>0.99770527142582766</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>337</v>
+        <v>743</v>
       </c>
     </row>
     <row r="241">
@@ -5268,7 +6553,7 @@
         <v>0.99875110962046909</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>337</v>
+        <v>743</v>
       </c>
     </row>
     <row r="242">
@@ -5285,7 +6570,7 @@
         <v>0.99915052521239245</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>338</v>
+        <v>744</v>
       </c>
     </row>
     <row r="243">
@@ -5302,7 +6587,7 @@
         <v>0.99888201855849201</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>339</v>
+        <v>745</v>
       </c>
     </row>
     <row r="244">
@@ -5319,7 +6604,7 @@
         <v>0.99869234392931316</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>340</v>
+        <v>746</v>
       </c>
     </row>
     <row r="245">
@@ -5336,7 +6621,7 @@
         <v>0.99887055208216879</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>340</v>
+        <v>746</v>
       </c>
     </row>
     <row r="246">
@@ -5353,7 +6638,7 @@
         <v>0.9987912422876003</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>340</v>
+        <v>746</v>
       </c>
     </row>
     <row r="247">
@@ -5370,7 +6655,7 @@
         <v>0.99885717452645839</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>341</v>
+        <v>747</v>
       </c>
     </row>
     <row r="248">
@@ -5387,7 +6672,7 @@
         <v>0.99856191276113715</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>342</v>
+        <v>748</v>
       </c>
     </row>
     <row r="249">
@@ -5404,7 +6689,7 @@
         <v>0.99891976237638902</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>343</v>
+        <v>749</v>
       </c>
     </row>
     <row r="250">
@@ -5421,7 +6706,7 @@
         <v>0.9986856551514578</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>343</v>
+        <v>749</v>
       </c>
     </row>
     <row r="251">
@@ -5438,7 +6723,7 @@
         <v>0.99873820983460571</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>344</v>
+        <v>750</v>
       </c>
     </row>
     <row r="252">
@@ -5455,7 +6740,7 @@
         <v>0.99817014148676231</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>345</v>
+        <v>751</v>
       </c>
     </row>
     <row r="253">
@@ -5472,7 +6757,7 @@
         <v>0.99875875393801783</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>346</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254">
@@ -5489,7 +6774,7 @@
         <v>0.99814386414518852</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>346</v>
+        <v>752</v>
       </c>
     </row>
     <row r="255">
@@ -5506,7 +6791,7 @@
         <v>0.99884953020890976</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>347</v>
+        <v>753</v>
       </c>
     </row>
     <row r="256">
@@ -5523,7 +6808,7 @@
         <v>0.99890017381267038</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>348</v>
+        <v>754</v>
       </c>
     </row>
     <row r="257">
@@ -5540,7 +6825,7 @@
         <v>0.99874680969184815</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>348</v>
+        <v>754</v>
       </c>
     </row>
     <row r="258">
@@ -5557,7 +6842,7 @@
         <v>0.99903681598885463</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>349</v>
+        <v>755</v>
       </c>
     </row>
     <row r="259">
@@ -5574,7 +6859,7 @@
         <v>0.99893457324163981</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>349</v>
+        <v>755</v>
       </c>
     </row>
     <row r="260">
@@ -5591,7 +6876,7 @@
         <v>0.99855522398328189</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>350</v>
+        <v>756</v>
       </c>
     </row>
     <row r="261">
@@ -5608,7 +6893,7 @@
         <v>0.99903490490946745</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>351</v>
+        <v>757</v>
       </c>
     </row>
     <row r="262">
@@ -5625,7 +6910,7 @@
         <v>0.99921884630048474</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>352</v>
+        <v>758</v>
       </c>
     </row>
     <row r="263">
@@ -5642,7 +6927,7 @@
         <v>0.99921550191155717</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>352</v>
+        <v>758</v>
       </c>
     </row>
     <row r="264">
@@ -5659,7 +6944,7 @@
         <v>0.99865268903202886</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>353</v>
+        <v>759</v>
       </c>
     </row>
     <row r="265">
@@ -5676,7 +6961,7 @@
         <v>0.99835647172701392</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>354</v>
+        <v>760</v>
       </c>
     </row>
     <row r="266">
@@ -5693,7 +6978,7 @@
         <v>0.99850553591921498</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>354</v>
+        <v>760</v>
       </c>
     </row>
     <row r="267">
@@ -5710,7 +6995,7 @@
         <v>0.99887532978063676</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>354</v>
+        <v>760</v>
       </c>
     </row>
     <row r="268">
@@ -5727,7 +7012,7 @@
         <v>0.99867896637360265</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>354</v>
+        <v>760</v>
       </c>
     </row>
     <row r="269">
@@ -5744,7 +7029,7 @@
         <v>0.99866176665911777</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>354</v>
+        <v>760</v>
       </c>
     </row>
     <row r="270">
@@ -5761,7 +7046,7 @@
         <v>0.99851652462569107</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>354</v>
+        <v>760</v>
       </c>
     </row>
     <row r="271">
@@ -5778,7 +7063,7 @@
         <v>0.99870381040563627</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>354</v>
+        <v>760</v>
       </c>
     </row>
     <row r="272">
@@ -5795,7 +7080,7 @@
         <v>0.99524427894496947</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>355</v>
+        <v>761</v>
       </c>
     </row>
     <row r="273">
@@ -5812,7 +7097,7 @@
         <v>0.99885765229630519</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>355</v>
+        <v>761</v>
       </c>
     </row>
     <row r="274">
@@ -5829,7 +7114,7 @@
         <v>0.99861733406336572</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>356</v>
+        <v>762</v>
       </c>
     </row>
     <row r="275">
@@ -5846,7 +7131,7 @@
         <v>0.99857767916608142</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>357</v>
+        <v>763</v>
       </c>
     </row>
     <row r="276">
@@ -5863,7 +7148,7 @@
         <v>0.998277639702292</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>358</v>
+        <v>764</v>
       </c>
     </row>
     <row r="277">
@@ -5880,7 +7165,7 @@
         <v>0.99851939124477196</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>358</v>
+        <v>764</v>
       </c>
     </row>
     <row r="278">
@@ -5897,7 +7182,7 @@
         <v>0.99833449431406096</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>359</v>
+        <v>765</v>
       </c>
     </row>
     <row r="279">
@@ -5914,7 +7199,7 @@
         <v>0.99810420924790433</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>359</v>
+        <v>765</v>
       </c>
     </row>
     <row r="280">
@@ -5931,7 +7216,7 @@
         <v>0.99551230782902345</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>360</v>
+        <v>766</v>
       </c>
     </row>
     <row r="281">
@@ -5948,7 +7233,7 @@
         <v>0.9984353037517355</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>360</v>
+        <v>766</v>
       </c>
     </row>
     <row r="282">
@@ -5965,7 +7250,7 @@
         <v>0.99842288173571869</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>361</v>
+        <v>767</v>
       </c>
     </row>
     <row r="283">
@@ -5982,7 +7267,7 @@
         <v>0.99850744699860217</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="284">
@@ -5999,7 +7284,7 @@
         <v>0.99728435619079847</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="285">
@@ -6016,7 +7301,7 @@
         <v>0.99772868214832067</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="286">
@@ -6033,7 +7318,7 @@
         <v>0.99837558252088565</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="287">
@@ -6050,7 +7335,7 @@
         <v>0.99814147529595454</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="288">
@@ -6067,7 +7352,7 @@
         <v>0.99915004744254565</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="289">
@@ -6084,7 +7369,7 @@
         <v>0.99932443343662725</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="290">
@@ -6101,7 +7386,7 @@
         <v>0.99880318653377009</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="291">
@@ -6118,7 +7403,7 @@
         <v>0.99894126201949496</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="292">
@@ -6135,7 +7420,7 @@
         <v>0.99831299467095524</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="293">
@@ -6152,7 +7437,7 @@
         <v>0.9971462807050735</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="294">
@@ -6169,7 +7454,7 @@
         <v>0.99855856837220935</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="295">
@@ -6186,7 +7471,7 @@
         <v>0.99861685629351871</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="296">
@@ -6203,7 +7488,7 @@
         <v>0.99834500525069059</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="297">
@@ -6220,7 +7505,7 @@
         <v>0.99838991561628965</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>362</v>
+        <v>768</v>
       </c>
     </row>
     <row r="298">
@@ -6237,7 +7522,7 @@
         <v>0.99862211176183358</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>363</v>
+        <v>769</v>
       </c>
     </row>
     <row r="299">
@@ -6254,7 +7539,7 @@
         <v>0.998277639702292</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="300">
@@ -6271,7 +7556,7 @@
         <v>0.998277639702292</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="301">
@@ -6288,7 +7573,7 @@
         <v>0.99799336664344707</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="302">
@@ -6305,7 +7590,7 @@
         <v>0.99876830933495386</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="303">
@@ -6322,7 +7607,7 @@
         <v>0.99897709475800478</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="304">
@@ -6339,7 +7624,7 @@
         <v>0.99844677022805872</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="305">
@@ -6356,7 +7641,7 @@
         <v>0.998737254294912</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="306">
@@ -6373,7 +7658,7 @@
         <v>0.99885000797875656</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="307">
@@ -6390,7 +7675,7 @@
         <v>0.99891164028899349</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="308">
@@ -6407,7 +7692,7 @@
         <v>0.99864982241294797</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="309">
@@ -6424,7 +7709,7 @@
         <v>0.99885908560584569</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="310">
@@ -6441,7 +7726,7 @@
         <v>0.99840042655291927</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="311">
@@ -6458,7 +7743,7 @@
         <v>0.99878455350974504</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="312">
@@ -6475,7 +7760,7 @@
         <v>0.9986579445003434</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="313">
@@ -6492,7 +7777,7 @@
         <v>0.99888822956650036</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="314">
@@ -6509,7 +7794,7 @@
         <v>0.99845154792652679</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="315">
@@ -6526,7 +7811,7 @@
         <v>0.99861064528551036</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="316">
@@ -6543,7 +7828,7 @@
         <v>0.99761927285340402</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="317">
@@ -6560,7 +7845,7 @@
         <v>0.99726142323815203</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="318">
@@ -6577,7 +7862,7 @@
         <v>0.99871145472318479</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="319">
@@ -6594,7 +7879,7 @@
         <v>0.99894126201949507</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>364</v>
+        <v>770</v>
       </c>
     </row>
     <row r="320">
@@ -6611,7 +7896,7 @@
         <v>0.9967401763352951</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>365</v>
+        <v>771</v>
       </c>
     </row>
     <row r="321">
@@ -6628,7 +7913,7 @@
         <v>0.9985399353481843</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>366</v>
+        <v>772</v>
       </c>
     </row>
     <row r="322">
@@ -6645,7 +7930,7 @@
         <v>0.99875875393801794</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>367</v>
+        <v>773</v>
       </c>
     </row>
     <row r="323">
@@ -6662,7 +7947,7 @@
         <v>0.99888345186803229</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>367</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
